--- a/Excel/excel/WelfareMenuConfig.xlsx
+++ b/Excel/excel/WelfareMenuConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="WelfareMenuConfig" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CheckInConfig.xlsx</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">RechargeConfig.xlsx
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">TodayGiftConfig.xlsx
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
@@ -67,31 +115,31 @@
     <t>ui://Welfare/Child_DiamondView</t>
   </si>
   <si>
+    <t>优惠宝箱</t>
+  </si>
+  <si>
+    <t>ui://Welfare/Child_TodayView</t>
+  </si>
+  <si>
+    <t>日常活动</t>
+  </si>
+  <si>
+    <t>联盟圣兽</t>
+  </si>
+  <si>
+    <t>ui://Welfare/Child_ThanatorView</t>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+  </si>
+  <si>
+    <t>ui://Welfare/Child_WorldBossView</t>
+  </si>
+  <si>
     <t>超值祈愿</t>
   </si>
   <si>
     <t>ui://Welfare/Child_WishView</t>
-  </si>
-  <si>
-    <t>日常活动</t>
-  </si>
-  <si>
-    <t>联盟圣兽</t>
-  </si>
-  <si>
-    <t>ui://Welfare/Child_ThanatorView</t>
-  </si>
-  <si>
-    <t>世界BOSS</t>
-  </si>
-  <si>
-    <t>ui://Welfare/Child_WorldBossView</t>
-  </si>
-  <si>
-    <t>优惠宝箱</t>
-  </si>
-  <si>
-    <t>ui://Welfare/Child_TodayView</t>
   </si>
 </sst>
 </file>
@@ -104,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +310,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -714,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,9 +791,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -749,16 +799,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1132,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1152,65 +1199,65 @@
       <c r="A4" s="7">
         <v>1000</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1001</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1002</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>1003</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1218,48 +1265,48 @@
       <c r="A8" s="12">
         <v>2000</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2001</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2002</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1267,21 +1314,22 @@
       <c r="A11" s="4">
         <v>2003</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>